--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -44,19 +44,27 @@
 </t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">Example 2
+	- Add comments
+	- Complete To-Do's
+	- Push-ups (50x)
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -84,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
@@ -99,22 +107,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="Headers" displayName="Headers" ref="A1:G10">
-  <autoFilter ref="A1:G10"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Monday"/>
-    <tableColumn id="2" name="Tuesday"/>
-    <tableColumn id="3" name="Wednesday"/>
-    <tableColumn id="4" name="Thursday"/>
-    <tableColumn id="5" name="Friday"/>
-    <tableColumn id="6" name="Saturday"/>
-    <tableColumn id="7" name="Sunday"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,22 +407,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="4" width="20" customWidth="1" style="1"/>
-    <col min="5" max="8" width="20" customWidth="1"/>
+    <col min="1" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -439,13 +429,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -453,30 +443,19 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Monday</t>
   </si>
@@ -38,16 +38,21 @@
   </si>
   <si>
     <t xml:space="preserve">Example
-	- Add comments
-	- Complete To-Do's
-	- Push-ups (50x)
+	- Add comments	1reps,1sets
+	- Complete To-Do's	1reps,1sets
+	- Push-ups (50x)	1reps,1sets
 </t>
   </si>
   <si>
+    <t xml:space="preserve">pushuos
+	- noth	100reps,2sets
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Example 2
-	- Add comments
-	- Complete To-Do's
-	- Push-ups (50x)
+	- Add comments	1reps,1sets
+	- Complete To-Do's	1reps,1sets
+	- Push-ups (50x)	1reps,1sets
 </t>
   </si>
 </sst>
@@ -443,15 +448,18 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -38,21 +38,23 @@
   </si>
   <si>
     <t xml:space="preserve">Example
-	- Add comments	1reps,1sets
-	- Complete To-Do's	1reps,1sets
-	- Push-ups (50x)	1reps,1sets
+-	Add comments (1x, 1 sets)
+-	Complete To-Do's (1x, 1 sets)
+-	Push-ups (50x) (1x, 1 sets)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">pushuos
-	- noth	100reps,2sets
+    <t xml:space="preserve">Pushups example workout
+-	push-ups (50x, 4 sets)
+-	sit-ups (35x, 4 sets)
+-	ankle-taps (35x, 4 sets)
 </t>
   </si>
   <si>
     <t xml:space="preserve">Example 2
-	- Add comments	1reps,1sets
-	- Complete To-Do's	1reps,1sets
-	- Push-ups (50x)	1reps,1sets
+-	Add comments (1x, 1 sets)
+-	Complete To-Do's (1x, 1 sets)
+-	Push-ups (50x) (1x, 1 sets)
 </t>
   </si>
 </sst>
@@ -418,7 +420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="7" width="20" customWidth="1"/>
+    <col min="1" max="7" width="28.57031" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
